--- a/13226009(human).xlsx
+++ b/13226009(human).xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E6CA2CF5-DC76-4E7E-B507-085EAD584E32}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6EF569B7-3813-4874-A996-8CE61C61DE12}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11445" windowHeight="7515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11445" windowHeight="7515" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Experimental Protocol #1" sheetId="1" r:id="rId1"/>
     <sheet name="Interictal Events" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="Report" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179017"/>
 </workbook>
@@ -27,7 +27,32 @@
     <author>Michael Chang</author>
   </authors>
   <commentList>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{2AF437C6-DDE5-41F4-B342-01EF59B14A29}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{571DDEF4-0BB9-4C2F-80D0-CE0E476E24A8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Michael Chang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+threshold for detection: Avg+3xSigma
+Spike &gt; 90 ms apart</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{2AF437C6-DDE5-41F4-B342-01EF59B14A29}">
       <text>
         <r>
           <rPr>
@@ -55,8 +80,43 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Michael Chang</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{7B98DF7D-629F-4AEF-974A-171A4E1A0314}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Michael Chang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+threshold for detection: Avg+3xSigma
+Spike &gt; 90 ms apart</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="24">
   <si>
     <t>Stim time (s)</t>
   </si>
@@ -94,27 +154,6 @@
     <t>Light-Triggered</t>
   </si>
   <si>
-    <t>Time onset</t>
-  </si>
-  <si>
-    <t>Time offset</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Stimulation Time</t>
-  </si>
-  <si>
-    <t>Delay</t>
-  </si>
-  <si>
-    <t>Ictal</t>
-  </si>
-  <si>
-    <t>Interictal</t>
-  </si>
-  <si>
     <t>Sub-seizure event?</t>
   </si>
   <si>
@@ -135,12 +174,30 @@
   <si>
     <t>V3.0</t>
   </si>
+  <si>
+    <t xml:space="preserve">Algo V4.0 </t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Avg Frequency</t>
+  </si>
+  <si>
+    <t>1st half</t>
+  </si>
+  <si>
+    <t>2nd half</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,8 +261,81 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,6 +363,12 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -258,13 +394,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -273,8 +410,21 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="20% - Accent3" xfId="4" builtinId="38"/>
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -614,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,9 +780,11 @@
     <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -660,22 +812,27 @@
       <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="7"/>
+      <c r="N1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>692.08280000000002</v>
       </c>
@@ -706,26 +863,44 @@
       <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="S2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T2" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>843.80380000000002</v>
       </c>
@@ -756,32 +931,56 @@
       <c r="I3" t="s">
         <v>11</v>
       </c>
-      <c r="K3">
-        <v>692.10890000000006</v>
-      </c>
-      <c r="L3">
-        <v>738.84760000000006</v>
-      </c>
-      <c r="M3" s="4">
+      <c r="N3">
+        <v>2.2084999999999999</v>
+      </c>
+      <c r="O3">
+        <v>27.142499999999998</v>
+      </c>
+      <c r="P3">
+        <v>24.934000000000001</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>0.519999980926514</v>
+      </c>
+      <c r="R3" s="9" t="b">
+        <f>Q3&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.58333331346511796</v>
+      </c>
+      <c r="T3">
+        <v>0.46153846383094799</v>
+      </c>
+      <c r="U3" s="9">
+        <f>S3/T3</f>
+        <v>1.2638888395632848</v>
+      </c>
+      <c r="V3" t="b">
+        <f>U3&gt;2</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="4">
         <v>386.59019999999998</v>
       </c>
-      <c r="N3" s="4">
+      <c r="X3" s="4">
         <v>761.15170000000001</v>
       </c>
-      <c r="O3" s="5">
+      <c r="Y3" s="5">
         <v>692.17110000000002</v>
       </c>
-      <c r="P3" s="6">
+      <c r="Z3" s="6">
         <v>747.87400000000002</v>
       </c>
-      <c r="Q3">
+      <c r="AA3">
         <v>692.12159999999994</v>
       </c>
-      <c r="R3">
+      <c r="AB3">
         <v>748.09059999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>995.52139999999997</v>
       </c>
@@ -812,32 +1011,56 @@
       <c r="I4" t="s">
         <v>11</v>
       </c>
-      <c r="K4">
-        <v>843.83080000000007</v>
-      </c>
-      <c r="L4">
-        <v>915.50010000000009</v>
-      </c>
-      <c r="M4" s="5">
+      <c r="N4">
+        <v>39.5199</v>
+      </c>
+      <c r="O4">
+        <v>118.93819999999999</v>
+      </c>
+      <c r="P4">
+        <v>79.418300000000002</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>0.329113930463791</v>
+      </c>
+      <c r="R4" s="9" t="b">
+        <f t="shared" ref="R4:R25" si="3">Q4&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.35897436738014199</v>
+      </c>
+      <c r="T4">
+        <v>0.30000001192092901</v>
+      </c>
+      <c r="U4" s="9">
+        <f t="shared" ref="U4:U25" si="4">S4/T4</f>
+        <v>1.1965811770526091</v>
+      </c>
+      <c r="V4" t="b">
+        <f t="shared" ref="V4:V25" si="5">U4&gt;2</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="5">
         <v>843.83109999999999</v>
       </c>
-      <c r="N4" s="5">
+      <c r="X4" s="5">
         <v>914.96</v>
       </c>
-      <c r="O4" s="5">
+      <c r="Y4" s="5">
         <v>843.83109999999999</v>
       </c>
-      <c r="P4" s="5">
+      <c r="Z4" s="5">
         <v>914.96</v>
       </c>
-      <c r="Q4">
+      <c r="AA4">
         <v>843.83699999999999</v>
       </c>
-      <c r="R4">
+      <c r="AB4">
         <v>915.29319999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1118.1713999999999</v>
       </c>
@@ -868,32 +1091,62 @@
       <c r="I5" t="s">
         <v>11</v>
       </c>
-      <c r="K5">
-        <v>995.54829999999993</v>
-      </c>
       <c r="L5">
-        <v>1040.809</v>
-      </c>
-      <c r="M5" s="5">
+        <v>692.10890000000006</v>
+      </c>
+      <c r="M5">
+        <v>738.84760000000006</v>
+      </c>
+      <c r="N5">
+        <v>130.453</v>
+      </c>
+      <c r="O5">
+        <v>765.34059999999999</v>
+      </c>
+      <c r="P5">
+        <v>634.88760000000002</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0.467716544866562</v>
+      </c>
+      <c r="R5" s="9" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.223974764347076</v>
+      </c>
+      <c r="T5">
+        <v>0.71069180965423595</v>
+      </c>
+      <c r="U5" s="9">
+        <f t="shared" si="4"/>
+        <v>0.31515033845126716</v>
+      </c>
+      <c r="V5" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="5">
         <v>995.54960000000005</v>
       </c>
-      <c r="N5" s="4">
+      <c r="X5" s="4">
         <v>1056.5477000000001</v>
       </c>
-      <c r="O5" s="5">
+      <c r="Y5" s="5">
         <v>995.54960000000005</v>
       </c>
-      <c r="P5" s="4">
+      <c r="Z5" s="4">
         <v>1056.5477000000001</v>
       </c>
-      <c r="Q5">
+      <c r="AA5">
         <v>995.55960000000005</v>
       </c>
-      <c r="R5">
+      <c r="AB5">
         <v>1056.7751000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1317.1717000000001</v>
       </c>
@@ -924,32 +1177,58 @@
       <c r="I6" t="s">
         <v>11</v>
       </c>
-      <c r="K6">
-        <v>1118.2051999999999</v>
-      </c>
       <c r="L6">
-        <v>1181.2822999999999</v>
-      </c>
-      <c r="M6" s="5">
+        <v>843.83080000000007</v>
+      </c>
+      <c r="M6">
+        <v>915.50010000000009</v>
+      </c>
+      <c r="N6">
+        <v>843.67010000000005</v>
+      </c>
+      <c r="O6">
+        <v>915.29229999999995</v>
+      </c>
+      <c r="P6">
+        <v>71.622200000000007</v>
+      </c>
+      <c r="Q6">
+        <v>1.48611116409302</v>
+      </c>
+      <c r="R6" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1.5833333730697601</v>
+      </c>
+      <c r="T6">
+        <v>1.37837839126587</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="4"/>
+        <v>1.1486928285459148</v>
+      </c>
+      <c r="W6" s="5">
         <v>1118.2012</v>
       </c>
-      <c r="N6" s="5">
+      <c r="X6" s="5">
         <v>1180.664</v>
       </c>
-      <c r="O6" s="5">
+      <c r="Y6" s="5">
         <v>1118.2012</v>
       </c>
-      <c r="P6" s="5">
+      <c r="Z6" s="5">
         <v>1180.664</v>
       </c>
-      <c r="Q6">
+      <c r="AA6">
         <v>1118.2159999999999</v>
       </c>
-      <c r="R6">
+      <c r="AB6">
         <v>1181.028</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1480.1074000000001</v>
       </c>
@@ -980,32 +1259,58 @@
       <c r="I7" t="s">
         <v>11</v>
       </c>
-      <c r="K7">
-        <v>1317.1990000000001</v>
-      </c>
       <c r="L7">
-        <v>1376.3197</v>
-      </c>
-      <c r="M7" s="5">
+        <v>995.54829999999993</v>
+      </c>
+      <c r="M7">
+        <v>1040.809</v>
+      </c>
+      <c r="N7">
+        <v>995.38729999999998</v>
+      </c>
+      <c r="O7">
+        <v>1056.5477000000001</v>
+      </c>
+      <c r="P7">
+        <v>61.160400000000003</v>
+      </c>
+      <c r="Q7">
+        <v>1.42622947692871</v>
+      </c>
+      <c r="R7" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1.9666666984558101</v>
+      </c>
+      <c r="T7">
+        <v>0.90322577953338601</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="4"/>
+        <v>2.177381052467088</v>
+      </c>
+      <c r="W7" s="5">
         <v>1317.2787000000001</v>
       </c>
-      <c r="N7" s="4">
+      <c r="X7" s="4">
         <v>1397.4315999999999</v>
       </c>
-      <c r="O7" s="5">
+      <c r="Y7" s="5">
         <v>1317.2787000000001</v>
       </c>
-      <c r="P7" s="4">
+      <c r="Z7" s="4">
         <v>1397.4315999999999</v>
       </c>
-      <c r="Q7">
+      <c r="AA7">
         <v>1317.2126000000001</v>
       </c>
-      <c r="R7">
+      <c r="AB7">
         <v>1398.0115000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1581.9540999999999</v>
       </c>
@@ -1024,44 +1329,70 @@
         <v>53.134600000000091</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8" si="3">(B8/50)*6.28</f>
+        <f t="shared" ref="F8" si="6">(B8/50)*6.28</f>
         <v>4.0694400000065795E-3</v>
       </c>
       <c r="G8" t="s">
         <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
       </c>
-      <c r="K8">
-        <v>1480.1411000000001</v>
-      </c>
       <c r="L8">
-        <v>1550.8947000000001</v>
-      </c>
-      <c r="M8" s="5">
+        <v>1118.2051999999999</v>
+      </c>
+      <c r="M8">
+        <v>1181.2822999999999</v>
+      </c>
+      <c r="N8">
+        <v>1118.0427999999999</v>
+      </c>
+      <c r="O8">
+        <v>1180.8578</v>
+      </c>
+      <c r="P8">
+        <v>62.814999999999998</v>
+      </c>
+      <c r="Q8">
+        <v>1.31746029853821</v>
+      </c>
+      <c r="R8" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1.58064520359039</v>
+      </c>
+      <c r="T8">
+        <v>1.0625</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="4"/>
+        <v>1.4876660739674259</v>
+      </c>
+      <c r="W8" s="5">
         <v>1480.1383000000001</v>
       </c>
-      <c r="N8" s="5">
+      <c r="X8" s="5">
         <v>1550.5255999999999</v>
       </c>
-      <c r="O8" s="5">
+      <c r="Y8" s="5">
         <v>1480.1383000000001</v>
       </c>
-      <c r="P8" s="5">
+      <c r="Z8" s="5">
         <v>1550.5255999999999</v>
       </c>
-      <c r="Q8">
+      <c r="AA8">
         <v>1480.1541</v>
       </c>
-      <c r="R8">
+      <c r="AB8">
         <v>1550.7545</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1683.7995000000001</v>
       </c>
@@ -1092,32 +1423,58 @@
       <c r="I9" t="s">
         <v>11</v>
       </c>
-      <c r="K9">
-        <v>1581.9865</v>
-      </c>
       <c r="L9">
-        <v>1635.1211000000001</v>
-      </c>
-      <c r="M9" s="5">
+        <v>1317.1990000000001</v>
+      </c>
+      <c r="M9">
+        <v>1376.3197</v>
+      </c>
+      <c r="N9">
+        <v>1316.9579000000001</v>
+      </c>
+      <c r="O9">
+        <v>1397.9484</v>
+      </c>
+      <c r="P9">
+        <v>80.990499999999997</v>
+      </c>
+      <c r="Q9">
+        <v>1.6790122985839799</v>
+      </c>
+      <c r="R9" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>2.4749999046325701</v>
+      </c>
+      <c r="T9">
+        <v>0.90243899822235096</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="4"/>
+        <v>2.7425675414159767</v>
+      </c>
+      <c r="W9" s="5">
         <v>1581.9871000000001</v>
       </c>
-      <c r="N9" s="5">
+      <c r="X9" s="5">
         <v>1633.5979</v>
       </c>
-      <c r="O9" s="4">
+      <c r="Y9" s="4">
         <v>1592.4413</v>
       </c>
-      <c r="P9" s="5">
+      <c r="Z9" s="5">
         <v>1633.5979</v>
       </c>
-      <c r="Q9">
+      <c r="AA9">
         <v>1592.4323999999999</v>
       </c>
-      <c r="R9">
+      <c r="AB9">
         <v>1634.165</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1887.4851000000001</v>
       </c>
@@ -1148,32 +1505,58 @@
       <c r="I10" t="s">
         <v>11</v>
       </c>
-      <c r="K10">
-        <v>1683.8302000000001</v>
-      </c>
       <c r="L10">
-        <v>1771.3882000000001</v>
-      </c>
-      <c r="M10" s="5">
+        <v>1480.1411000000001</v>
+      </c>
+      <c r="M10">
+        <v>1550.8947000000001</v>
+      </c>
+      <c r="N10">
+        <v>1479.9727</v>
+      </c>
+      <c r="O10">
+        <v>1550.5255999999999</v>
+      </c>
+      <c r="P10">
+        <v>70.552899999999994</v>
+      </c>
+      <c r="Q10">
+        <v>1.53521132469177</v>
+      </c>
+      <c r="R10" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>2.0285713672637899</v>
+      </c>
+      <c r="T10">
+        <v>1.0555555820465099</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="4"/>
+        <v>1.9218044049663383</v>
+      </c>
+      <c r="W10" s="5">
         <v>1683.8312000000001</v>
       </c>
-      <c r="N10" s="5">
+      <c r="X10" s="5">
         <v>1770.6265000000001</v>
       </c>
-      <c r="O10" s="5">
+      <c r="Y10" s="5">
         <v>1683.8312000000001</v>
       </c>
-      <c r="P10" s="5">
+      <c r="Z10" s="5">
         <v>1770.6265000000001</v>
       </c>
-      <c r="Q10">
+      <c r="AA10">
         <v>1683.8448000000001</v>
       </c>
-      <c r="R10">
+      <c r="AB10">
         <v>1771.1962000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2091.1595000000002</v>
       </c>
@@ -1204,32 +1587,62 @@
       <c r="I11" t="s">
         <v>11</v>
       </c>
-      <c r="K11">
-        <v>1887.5141000000001</v>
-      </c>
       <c r="L11">
-        <v>1982.2073</v>
-      </c>
-      <c r="M11" s="5">
+        <v>1581.9865</v>
+      </c>
+      <c r="M11">
+        <v>1635.1211000000001</v>
+      </c>
+      <c r="N11">
+        <v>1581.8163999999999</v>
+      </c>
+      <c r="O11">
+        <v>1634.0758000000001</v>
+      </c>
+      <c r="P11">
+        <v>52.259399999999999</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>0.71153843402862604</v>
+      </c>
+      <c r="R11" s="10" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.84615385532379195</v>
+      </c>
+      <c r="T11">
+        <v>0.59259259700775202</v>
+      </c>
+      <c r="U11" s="9">
+        <f t="shared" si="4"/>
+        <v>1.4278846202203281</v>
+      </c>
+      <c r="V11" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="5">
         <v>1887.6111000000001</v>
       </c>
-      <c r="N11" s="4">
+      <c r="X11" s="4">
         <v>1989.3570999999999</v>
       </c>
-      <c r="O11" s="5">
+      <c r="Y11" s="5">
         <v>1887.6111000000001</v>
       </c>
-      <c r="P11" s="4">
+      <c r="Z11" s="4">
         <v>1989.3570999999999</v>
       </c>
-      <c r="Q11">
+      <c r="AA11">
         <v>1887.5305000000001</v>
       </c>
-      <c r="R11">
+      <c r="AB11">
         <v>1989.6387999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2294.8366999999998</v>
       </c>
@@ -1260,32 +1673,58 @@
       <c r="I12" t="s">
         <v>11</v>
       </c>
-      <c r="K12">
-        <v>2091.1911</v>
-      </c>
       <c r="L12">
-        <v>2186.4101000000001</v>
-      </c>
-      <c r="M12" s="5">
+        <v>1683.8302000000001</v>
+      </c>
+      <c r="M12">
+        <v>1771.3882000000001</v>
+      </c>
+      <c r="N12">
+        <v>1683.6712</v>
+      </c>
+      <c r="O12">
+        <v>1786.4303</v>
+      </c>
+      <c r="P12">
+        <v>102.7591</v>
+      </c>
+      <c r="Q12">
+        <v>1.4271844625473</v>
+      </c>
+      <c r="R12" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1.98039209842682</v>
+      </c>
+      <c r="T12">
+        <v>0.88461536169052102</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="4"/>
+        <v>2.2387041692812608</v>
+      </c>
+      <c r="W12" s="5">
         <v>2091.2858999999999</v>
       </c>
-      <c r="N12" s="4">
+      <c r="X12" s="4">
         <v>2231.433</v>
       </c>
-      <c r="O12" s="5">
+      <c r="Y12" s="5">
         <v>2091.2858999999999</v>
       </c>
-      <c r="P12" s="4">
+      <c r="Z12" s="4">
         <v>2231.433</v>
       </c>
-      <c r="Q12">
+      <c r="AA12">
         <v>2091.2091999999998</v>
       </c>
-      <c r="R12">
+      <c r="AB12">
         <v>2232.4328999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2498.5001000000002</v>
       </c>
@@ -1316,32 +1755,58 @@
       <c r="I13" t="s">
         <v>11</v>
       </c>
-      <c r="K13">
-        <v>2294.8737999999998</v>
-      </c>
       <c r="L13">
-        <v>2363.7217999999998</v>
-      </c>
-      <c r="M13" s="5">
+        <v>1887.5141000000001</v>
+      </c>
+      <c r="M13">
+        <v>1982.2073</v>
+      </c>
+      <c r="N13">
+        <v>1887.2783999999999</v>
+      </c>
+      <c r="O13">
+        <v>1989.3570999999999</v>
+      </c>
+      <c r="P13">
+        <v>102.0787</v>
+      </c>
+      <c r="Q13">
+        <v>1.49019610881805</v>
+      </c>
+      <c r="R13" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>2.0392158031463601</v>
+      </c>
+      <c r="T13">
+        <v>0.94230771064758301</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="4"/>
+        <v>2.1640657081591193</v>
+      </c>
+      <c r="W13" s="5">
         <v>2294.8715000000002</v>
       </c>
-      <c r="N13" s="5">
+      <c r="X13" s="5">
         <v>2363.5369999999998</v>
       </c>
-      <c r="O13" s="5">
+      <c r="Y13" s="5">
         <v>2294.8715000000002</v>
       </c>
-      <c r="P13" s="5">
+      <c r="Z13" s="5">
         <v>2363.5369999999998</v>
       </c>
-      <c r="Q13">
+      <c r="AA13">
         <v>2294.8859000000002</v>
       </c>
-      <c r="R13">
+      <c r="AB13">
         <v>2363.7626</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2702.165</v>
       </c>
@@ -1372,32 +1837,58 @@
       <c r="I14" t="s">
         <v>11</v>
       </c>
-      <c r="K14">
-        <v>2498.5335</v>
-      </c>
       <c r="L14">
-        <v>2610.7525999999998</v>
-      </c>
-      <c r="M14" s="5">
+        <v>2091.1911</v>
+      </c>
+      <c r="M14">
+        <v>2186.4101000000001</v>
+      </c>
+      <c r="N14">
+        <v>2090.9778000000001</v>
+      </c>
+      <c r="O14">
+        <v>2241.5772000000002</v>
+      </c>
+      <c r="P14">
+        <v>150.5994</v>
+      </c>
+      <c r="Q14">
+        <v>1.25827813148499</v>
+      </c>
+      <c r="R14" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>1.7200000286102299</v>
+      </c>
+      <c r="T14">
+        <v>0.80263155698776301</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="4"/>
+        <v>2.1429509139477472</v>
+      </c>
+      <c r="W14" s="5">
         <v>2498.6421</v>
       </c>
-      <c r="N14" s="5">
+      <c r="X14" s="5">
         <v>2610.6125999999999</v>
       </c>
-      <c r="O14" s="5">
+      <c r="Y14" s="5">
         <v>2498.6421</v>
       </c>
-      <c r="P14" s="5">
+      <c r="Z14" s="5">
         <v>2610.6125999999999</v>
       </c>
-      <c r="Q14">
+      <c r="AA14">
         <v>2498.511</v>
       </c>
-      <c r="R14">
+      <c r="AB14">
         <v>2610.8400999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2905.8276000000001</v>
       </c>
@@ -1428,32 +1919,58 @@
       <c r="I15" t="s">
         <v>11</v>
       </c>
-      <c r="K15">
-        <v>2702.2017999999998</v>
-      </c>
       <c r="L15">
-        <v>2795.4930999999997</v>
-      </c>
-      <c r="M15" s="5">
+        <v>2294.8737999999998</v>
+      </c>
+      <c r="M15">
+        <v>2363.7217999999998</v>
+      </c>
+      <c r="N15">
+        <v>2294.7161000000001</v>
+      </c>
+      <c r="O15">
+        <v>2363.5369999999998</v>
+      </c>
+      <c r="P15">
+        <v>68.820899999999995</v>
+      </c>
+      <c r="Q15">
+        <v>1.6376811265945399</v>
+      </c>
+      <c r="R15" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>2.2352941036224401</v>
+      </c>
+      <c r="T15">
+        <v>1.0571428537368801</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="4"/>
+        <v>2.1144674021310639</v>
+      </c>
+      <c r="W15" s="5">
         <v>2702.2001</v>
       </c>
-      <c r="N15" s="4">
+      <c r="X15" s="4">
         <v>2838.835</v>
       </c>
-      <c r="O15" s="5">
+      <c r="Y15" s="5">
         <v>2702.2001</v>
       </c>
-      <c r="P15" s="4">
+      <c r="Z15" s="4">
         <v>2838.835</v>
       </c>
-      <c r="Q15">
+      <c r="AA15">
         <v>2702.1761000000001</v>
       </c>
-      <c r="R15">
+      <c r="AB15">
         <v>2839.0929999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3109.4859000000001</v>
       </c>
@@ -1484,32 +2001,58 @@
       <c r="I16" t="s">
         <v>11</v>
       </c>
-      <c r="K16">
-        <v>2905.8652000000002</v>
-      </c>
       <c r="L16">
-        <v>2997.6413000000002</v>
-      </c>
-      <c r="M16" s="5">
+        <v>2498.5335</v>
+      </c>
+      <c r="M16">
+        <v>2610.7525999999998</v>
+      </c>
+      <c r="N16">
+        <v>2498.3225000000002</v>
+      </c>
+      <c r="O16">
+        <v>2610.6125999999999</v>
+      </c>
+      <c r="P16">
+        <v>112.2901</v>
+      </c>
+      <c r="Q16">
+        <v>1.4553571939468399</v>
+      </c>
+      <c r="R16" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>2.05357146263123</v>
+      </c>
+      <c r="T16">
+        <v>0.84210526943206798</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="4"/>
+        <v>2.4386160937054795</v>
+      </c>
+      <c r="W16" s="5">
         <v>2905.8638999999998</v>
       </c>
-      <c r="N16" s="5">
+      <c r="X16" s="5">
         <v>2997.3642</v>
       </c>
-      <c r="O16" s="5">
+      <c r="Y16" s="5">
         <v>2905.8638999999998</v>
       </c>
-      <c r="P16" s="5">
+      <c r="Z16" s="5">
         <v>2997.3642</v>
       </c>
-      <c r="Q16">
+      <c r="AA16">
         <v>2905.8809999999999</v>
       </c>
-      <c r="R16">
+      <c r="AB16">
         <v>2997.6118999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3314.0459999999998</v>
       </c>
@@ -1540,32 +2083,58 @@
       <c r="I17" t="s">
         <v>11</v>
       </c>
-      <c r="K17">
-        <v>3109.5308</v>
-      </c>
       <c r="L17">
-        <v>3199.7968000000001</v>
-      </c>
-      <c r="M17" s="5">
+        <v>2702.2017999999998</v>
+      </c>
+      <c r="M17">
+        <v>2795.4930999999997</v>
+      </c>
+      <c r="N17">
+        <v>2702.0475999999999</v>
+      </c>
+      <c r="O17">
+        <v>2839.2997999999998</v>
+      </c>
+      <c r="P17">
+        <v>137.25219999999999</v>
+      </c>
+      <c r="Q17">
+        <v>1.2408759593963601</v>
+      </c>
+      <c r="R17" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1.6764706373214699</v>
+      </c>
+      <c r="T17">
+        <v>0.81159418821334794</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="4"/>
+        <v>2.0656513583618312</v>
+      </c>
+      <c r="W17" s="5">
         <v>3007.6918999999998</v>
       </c>
-      <c r="N17" s="4">
+      <c r="X17" s="4">
         <v>3037.7995000000001</v>
       </c>
-      <c r="O17" s="5">
+      <c r="Y17" s="5">
         <v>3007.6918999999998</v>
       </c>
-      <c r="P17" s="4">
+      <c r="Z17" s="4">
         <v>3037.7995000000001</v>
       </c>
-      <c r="Q17">
+      <c r="AA17">
         <v>3109.4974000000002</v>
       </c>
-      <c r="R17">
+      <c r="AB17">
         <v>3199.6738999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3517.7026000000001</v>
       </c>
@@ -1596,55 +2165,299 @@
       <c r="I18" t="s">
         <v>11</v>
       </c>
-      <c r="K18">
+      <c r="L18">
+        <v>2905.8652000000002</v>
+      </c>
+      <c r="M18">
+        <v>2997.6413000000002</v>
+      </c>
+      <c r="N18">
+        <v>2905.7078000000001</v>
+      </c>
+      <c r="O18">
+        <v>2997.3642</v>
+      </c>
+      <c r="P18">
+        <v>91.656400000000005</v>
+      </c>
+      <c r="Q18">
+        <v>1.5326087474823</v>
+      </c>
+      <c r="R18" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1.9130434989929199</v>
+      </c>
+      <c r="T18">
+        <v>1.1276595592498799</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="4"/>
+        <v>1.696472559737336</v>
+      </c>
+      <c r="W18" s="5">
+        <v>3314.1644000000001</v>
+      </c>
+      <c r="X18" s="5">
+        <v>3384.4395</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>3314.1644000000001</v>
+      </c>
+      <c r="Z18" s="5">
+        <v>3384.4395</v>
+      </c>
+      <c r="AA18">
+        <v>3314.0958999999998</v>
+      </c>
+      <c r="AB18">
+        <v>3384.6698999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="N19">
+        <v>3007.6918999999998</v>
+      </c>
+      <c r="O19">
+        <v>3037.9576999999999</v>
+      </c>
+      <c r="P19">
+        <v>30.265799999999999</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>0.86666667461395297</v>
+      </c>
+      <c r="R19" s="10" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.2666666507720901</v>
+      </c>
+      <c r="T19">
+        <v>0.625</v>
+      </c>
+      <c r="U19" s="9">
+        <f t="shared" si="4"/>
+        <v>2.026666641235344</v>
+      </c>
+      <c r="V19" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W19" s="5">
+        <v>3517.8436999999999</v>
+      </c>
+      <c r="X19" s="5">
+        <v>3604.5632000000001</v>
+      </c>
+      <c r="Y19" s="5">
+        <v>3517.8436999999999</v>
+      </c>
+      <c r="Z19" s="5">
+        <v>3604.5632000000001</v>
+      </c>
+      <c r="AA19">
+        <v>3517.7127999999998</v>
+      </c>
+      <c r="AB19">
+        <v>3604.9576999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <v>3109.5308</v>
+      </c>
+      <c r="M20">
+        <v>3199.7968000000001</v>
+      </c>
+      <c r="N20">
+        <v>3109.3674000000001</v>
+      </c>
+      <c r="O20">
+        <v>3199.4405999999999</v>
+      </c>
+      <c r="P20">
+        <v>90.0732</v>
+      </c>
+      <c r="Q20">
+        <v>1.4111111164093</v>
+      </c>
+      <c r="R20" s="1" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1.7333333492279099</v>
+      </c>
+      <c r="T20">
+        <v>1.1086956262588501</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="4"/>
+        <v>1.5633987436902037</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="N21">
+        <v>3211.3543</v>
+      </c>
+      <c r="O21">
+        <v>3247.9000999999998</v>
+      </c>
+      <c r="P21">
+        <v>36.5458</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>0.94594591856002797</v>
+      </c>
+      <c r="R21" s="11" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.3333333730697601</v>
+      </c>
+      <c r="T21">
+        <v>0.57894736528396595</v>
+      </c>
+      <c r="U21" s="9">
+        <f t="shared" si="4"/>
+        <v>2.3030303841451594</v>
+      </c>
+      <c r="V21" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="L22">
         <v>3314.0886999999998</v>
       </c>
-      <c r="L18">
+      <c r="M22">
         <v>3384.7324999999996</v>
       </c>
-      <c r="M18" s="5">
-        <v>3314.1644000000001</v>
-      </c>
-      <c r="N18" s="5">
+      <c r="N22">
+        <v>3314.0106999999998</v>
+      </c>
+      <c r="O22">
         <v>3384.4395</v>
       </c>
-      <c r="O18" s="5">
-        <v>3314.1644000000001</v>
-      </c>
-      <c r="P18" s="5">
-        <v>3384.4395</v>
-      </c>
-      <c r="Q18">
-        <v>3314.0958999999998</v>
-      </c>
-      <c r="R18">
-        <v>3384.6698999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K19">
+      <c r="P22">
+        <v>70.428799999999995</v>
+      </c>
+      <c r="Q22">
+        <v>1.38571429252625</v>
+      </c>
+      <c r="R22" s="8" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>1.8571428060531601</v>
+      </c>
+      <c r="T22">
+        <v>0.94444441795349099</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="4"/>
+        <v>1.9663865556825333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="N23">
+        <v>3415.9106000000002</v>
+      </c>
+      <c r="O23">
+        <v>3428.5127000000002</v>
+      </c>
+      <c r="P23">
+        <v>12.6021</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>0.46153846383094799</v>
+      </c>
+      <c r="R23" s="11" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.33333334326744102</v>
+      </c>
+      <c r="T23">
+        <v>0.57142859697341897</v>
+      </c>
+      <c r="U23" s="9">
+        <f t="shared" si="4"/>
+        <v>0.5833333246409903</v>
+      </c>
+      <c r="V23" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="L24">
         <v>3517.7399</v>
       </c>
-      <c r="L19">
+      <c r="M24">
         <v>3605.1507999999999</v>
       </c>
-      <c r="M19" s="5">
-        <v>3517.8436999999999</v>
-      </c>
-      <c r="N19" s="5">
-        <v>3604.5632000000001</v>
-      </c>
-      <c r="O19" s="5">
-        <v>3517.8436999999999</v>
-      </c>
-      <c r="P19" s="5">
-        <v>3604.5632000000001</v>
-      </c>
-      <c r="Q19">
-        <v>3517.7127999999998</v>
-      </c>
-      <c r="R19">
-        <v>3604.9576999999999</v>
+      <c r="N24">
+        <v>3517.5131000000001</v>
+      </c>
+      <c r="O24">
+        <v>3604.7662</v>
+      </c>
+      <c r="P24">
+        <v>87.253100000000003</v>
+      </c>
+      <c r="Q24">
+        <v>1.5862069129943801</v>
+      </c>
+      <c r="R24" s="8" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>2.2790696620941202</v>
+      </c>
+      <c r="T24">
+        <v>0.909090936183929</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="4"/>
+        <v>2.5069765535898099</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="N25">
+        <v>3715.3768</v>
+      </c>
+      <c r="O25">
+        <v>3823.6433999999999</v>
+      </c>
+      <c r="P25">
+        <v>108.2666</v>
+      </c>
+      <c r="Q25">
+        <v>1.5</v>
+      </c>
+      <c r="R25" s="8" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>2.1666667461395299</v>
+      </c>
+      <c r="T25">
+        <v>0.818181812763214</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="4"/>
+        <v>2.6481482628196411</v>
       </c>
     </row>
   </sheetData>
@@ -2339,83 +3152,865 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="C2" s="13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
+      <c r="D2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C3">
-        <v>25</v>
-      </c>
-      <c r="D3">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C4">
-        <v>40</v>
-      </c>
-      <c r="D4">
-        <v>50</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C5">
-        <v>52</v>
-      </c>
-      <c r="D5">
-        <v>53</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
+      <c r="F2" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+    </row>
+    <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13">
+        <v>2.2084999999999999</v>
+      </c>
+      <c r="D3" s="13">
+        <v>27.142499999999998</v>
+      </c>
+      <c r="E3" s="13">
+        <v>24.934000000000001</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0.519999980926514</v>
+      </c>
+      <c r="G3" s="16" t="b">
+        <f>F3&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0.58333331346511796</v>
+      </c>
+      <c r="I3" s="14">
+        <v>0.46153846383094799</v>
+      </c>
+      <c r="J3" s="16">
+        <f>H3/I3</f>
+        <v>1.2638888395632848</v>
+      </c>
+      <c r="K3" s="13" t="b">
+        <f>J3&gt;2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13">
+        <v>39.5199</v>
+      </c>
+      <c r="D4" s="13">
+        <v>118.93819999999999</v>
+      </c>
+      <c r="E4" s="13">
+        <v>79.418300000000002</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0.329113930463791</v>
+      </c>
+      <c r="G4" s="16" t="b">
+        <f t="shared" ref="G4:G25" si="0">F4&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0.35897436738014199</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0.30000001192092901</v>
+      </c>
+      <c r="J4" s="16">
+        <f t="shared" ref="J4:J25" si="1">H4/I4</f>
+        <v>1.1965811770526091</v>
+      </c>
+      <c r="K4" s="13" t="b">
+        <f t="shared" ref="K4:K23" si="2">J4&gt;2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
+        <v>692.10890000000006</v>
+      </c>
+      <c r="B5" s="13">
+        <v>738.84760000000006</v>
+      </c>
+      <c r="C5" s="13">
+        <v>130.453</v>
+      </c>
+      <c r="D5" s="13">
+        <v>765.34059999999999</v>
+      </c>
+      <c r="E5" s="13">
+        <v>634.88760000000002</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0.467716544866562</v>
+      </c>
+      <c r="G5" s="16" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0.223974764347076</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0.71069180965423595</v>
+      </c>
+      <c r="J5" s="16">
+        <f t="shared" si="1"/>
+        <v>0.31515033845126716</v>
+      </c>
+      <c r="K5" s="13" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
+        <v>843.83080000000007</v>
+      </c>
+      <c r="B6" s="13">
+        <v>915.50010000000009</v>
+      </c>
+      <c r="C6" s="13">
+        <v>843.67010000000005</v>
+      </c>
+      <c r="D6" s="13">
+        <v>915.29229999999995</v>
+      </c>
+      <c r="E6" s="13">
+        <v>71.622200000000007</v>
+      </c>
+      <c r="F6" s="14">
+        <v>1.48611116409302</v>
+      </c>
+      <c r="G6" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H6" s="14">
+        <v>1.5833333730697601</v>
+      </c>
+      <c r="I6" s="14">
+        <v>1.37837839126587</v>
+      </c>
+      <c r="J6" s="13">
+        <f t="shared" si="1"/>
+        <v>1.1486928285459148</v>
+      </c>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
+        <v>995.54829999999993</v>
+      </c>
+      <c r="B7" s="13">
+        <v>1040.809</v>
+      </c>
+      <c r="C7" s="13">
+        <v>995.38729999999998</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1056.5477000000001</v>
+      </c>
+      <c r="E7" s="13">
+        <v>61.160400000000003</v>
+      </c>
+      <c r="F7" s="14">
+        <v>1.42622947692871</v>
+      </c>
+      <c r="G7" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H7" s="14">
+        <v>1.9666666984558101</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0.90322577953338601</v>
+      </c>
+      <c r="J7" s="13">
+        <f t="shared" si="1"/>
+        <v>2.177381052467088</v>
+      </c>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="13">
+        <v>1118.2051999999999</v>
+      </c>
+      <c r="B8" s="13">
+        <v>1181.2822999999999</v>
+      </c>
+      <c r="C8" s="13">
+        <v>1118.0427999999999</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1180.8578</v>
+      </c>
+      <c r="E8" s="13">
+        <v>62.814999999999998</v>
+      </c>
+      <c r="F8" s="14">
+        <v>1.31746029853821</v>
+      </c>
+      <c r="G8" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H8" s="14">
+        <v>1.58064520359039</v>
+      </c>
+      <c r="I8" s="14">
+        <v>1.0625</v>
+      </c>
+      <c r="J8" s="13">
+        <f t="shared" si="1"/>
+        <v>1.4876660739674259</v>
+      </c>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="13">
+        <v>1317.1990000000001</v>
+      </c>
+      <c r="B9" s="13">
+        <v>1376.3197</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1316.9579000000001</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1397.9484</v>
+      </c>
+      <c r="E9" s="13">
+        <v>80.990499999999997</v>
+      </c>
+      <c r="F9" s="14">
+        <v>1.6790122985839799</v>
+      </c>
+      <c r="G9" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="14">
+        <v>2.4749999046325701</v>
+      </c>
+      <c r="I9" s="14">
+        <v>0.90243899822235096</v>
+      </c>
+      <c r="J9" s="13">
+        <f t="shared" si="1"/>
+        <v>2.7425675414159767</v>
+      </c>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="13">
+        <v>1480.1411000000001</v>
+      </c>
+      <c r="B10" s="13">
+        <v>1550.8947000000001</v>
+      </c>
+      <c r="C10" s="13">
+        <v>1479.9727</v>
+      </c>
+      <c r="D10" s="13">
+        <v>1550.5255999999999</v>
+      </c>
+      <c r="E10" s="13">
+        <v>70.552899999999994</v>
+      </c>
+      <c r="F10" s="14">
+        <v>1.53521132469177</v>
+      </c>
+      <c r="G10" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H10" s="14">
+        <v>2.0285713672637899</v>
+      </c>
+      <c r="I10" s="14">
+        <v>1.0555555820465099</v>
+      </c>
+      <c r="J10" s="13">
+        <f t="shared" si="1"/>
+        <v>1.9218044049663383</v>
+      </c>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
+        <v>1581.9865</v>
+      </c>
+      <c r="B11" s="13">
+        <v>1635.1211000000001</v>
+      </c>
+      <c r="C11" s="13">
+        <v>1581.8163999999999</v>
+      </c>
+      <c r="D11" s="13">
+        <v>1634.0758000000001</v>
+      </c>
+      <c r="E11" s="13">
+        <v>52.259399999999999</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0.71153843402862604</v>
+      </c>
+      <c r="G11" s="17" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0.84615385532379195</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0.59259259700775202</v>
+      </c>
+      <c r="J11" s="16">
+        <f t="shared" si="1"/>
+        <v>1.4278846202203281</v>
+      </c>
+      <c r="K11" s="13" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
+        <v>1683.8302000000001</v>
+      </c>
+      <c r="B12" s="13">
+        <v>1771.3882000000001</v>
+      </c>
+      <c r="C12" s="13">
+        <v>1683.6712</v>
+      </c>
+      <c r="D12" s="13">
+        <v>1786.4303</v>
+      </c>
+      <c r="E12" s="13">
+        <v>102.7591</v>
+      </c>
+      <c r="F12" s="14">
+        <v>1.4271844625473</v>
+      </c>
+      <c r="G12" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H12" s="14">
+        <v>1.98039209842682</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0.88461536169052102</v>
+      </c>
+      <c r="J12" s="13">
+        <f t="shared" si="1"/>
+        <v>2.2387041692812608</v>
+      </c>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
+        <v>1887.5141000000001</v>
+      </c>
+      <c r="B13" s="13">
+        <v>1982.2073</v>
+      </c>
+      <c r="C13" s="13">
+        <v>1887.2783999999999</v>
+      </c>
+      <c r="D13" s="13">
+        <v>1989.3570999999999</v>
+      </c>
+      <c r="E13" s="13">
+        <v>102.0787</v>
+      </c>
+      <c r="F13" s="14">
+        <v>1.49019610881805</v>
+      </c>
+      <c r="G13" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H13" s="14">
+        <v>2.0392158031463601</v>
+      </c>
+      <c r="I13" s="14">
+        <v>0.94230771064758301</v>
+      </c>
+      <c r="J13" s="13">
+        <f t="shared" si="1"/>
+        <v>2.1640657081591193</v>
+      </c>
+      <c r="K13" s="13"/>
+    </row>
+    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
+        <v>2091.1911</v>
+      </c>
+      <c r="B14" s="13">
+        <v>2186.4101000000001</v>
+      </c>
+      <c r="C14" s="13">
+        <v>2090.9778000000001</v>
+      </c>
+      <c r="D14" s="13">
+        <v>2241.5772000000002</v>
+      </c>
+      <c r="E14" s="13">
+        <v>150.5994</v>
+      </c>
+      <c r="F14" s="14">
+        <v>1.25827813148499</v>
+      </c>
+      <c r="G14" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H14" s="14">
+        <v>1.7200000286102299</v>
+      </c>
+      <c r="I14" s="14">
+        <v>0.80263155698776301</v>
+      </c>
+      <c r="J14" s="13">
+        <f t="shared" si="1"/>
+        <v>2.1429509139477472</v>
+      </c>
+      <c r="K14" s="13"/>
+    </row>
+    <row r="15" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
+        <v>2294.8737999999998</v>
+      </c>
+      <c r="B15" s="13">
+        <v>2363.7217999999998</v>
+      </c>
+      <c r="C15" s="13">
+        <v>2294.7161000000001</v>
+      </c>
+      <c r="D15" s="13">
+        <v>2363.5369999999998</v>
+      </c>
+      <c r="E15" s="13">
+        <v>68.820899999999995</v>
+      </c>
+      <c r="F15" s="14">
+        <v>1.6376811265945399</v>
+      </c>
+      <c r="G15" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H15" s="14">
+        <v>2.2352941036224401</v>
+      </c>
+      <c r="I15" s="14">
+        <v>1.0571428537368801</v>
+      </c>
+      <c r="J15" s="13">
+        <f t="shared" si="1"/>
+        <v>2.1144674021310639</v>
+      </c>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
+        <v>2498.5335</v>
+      </c>
+      <c r="B16" s="13">
+        <v>2610.7525999999998</v>
+      </c>
+      <c r="C16" s="13">
+        <v>2498.3225000000002</v>
+      </c>
+      <c r="D16" s="13">
+        <v>2610.6125999999999</v>
+      </c>
+      <c r="E16" s="13">
+        <v>112.2901</v>
+      </c>
+      <c r="F16" s="14">
+        <v>1.4553571939468399</v>
+      </c>
+      <c r="G16" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H16" s="14">
+        <v>2.05357146263123</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0.84210526943206798</v>
+      </c>
+      <c r="J16" s="13">
+        <f t="shared" si="1"/>
+        <v>2.4386160937054795</v>
+      </c>
+      <c r="K16" s="13"/>
+    </row>
+    <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="13">
+        <v>2702.2017999999998</v>
+      </c>
+      <c r="B17" s="13">
+        <v>2795.4930999999997</v>
+      </c>
+      <c r="C17" s="13">
+        <v>2702.0475999999999</v>
+      </c>
+      <c r="D17" s="13">
+        <v>2839.2997999999998</v>
+      </c>
+      <c r="E17" s="13">
+        <v>137.25219999999999</v>
+      </c>
+      <c r="F17" s="14">
+        <v>1.2408759593963601</v>
+      </c>
+      <c r="G17" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H17" s="14">
+        <v>1.6764706373214699</v>
+      </c>
+      <c r="I17" s="14">
+        <v>0.81159418821334794</v>
+      </c>
+      <c r="J17" s="13">
+        <f t="shared" si="1"/>
+        <v>2.0656513583618312</v>
+      </c>
+      <c r="K17" s="13"/>
+    </row>
+    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="13">
+        <v>2905.8652000000002</v>
+      </c>
+      <c r="B18" s="13">
+        <v>2997.6413000000002</v>
+      </c>
+      <c r="C18" s="13">
+        <v>2905.7078000000001</v>
+      </c>
+      <c r="D18" s="13">
+        <v>2997.3642</v>
+      </c>
+      <c r="E18" s="13">
+        <v>91.656400000000005</v>
+      </c>
+      <c r="F18" s="14">
+        <v>1.5326087474823</v>
+      </c>
+      <c r="G18" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H18" s="14">
+        <v>1.9130434989929199</v>
+      </c>
+      <c r="I18" s="14">
+        <v>1.1276595592498799</v>
+      </c>
+      <c r="J18" s="13">
+        <f t="shared" si="1"/>
+        <v>1.696472559737336</v>
+      </c>
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13">
+        <v>3007.6918999999998</v>
+      </c>
+      <c r="D19" s="13">
+        <v>3037.9576999999999</v>
+      </c>
+      <c r="E19" s="13">
+        <v>30.265799999999999</v>
+      </c>
+      <c r="F19" s="14">
+        <v>0.86666667461395297</v>
+      </c>
+      <c r="G19" s="17" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="14">
+        <v>1.2666666507720901</v>
+      </c>
+      <c r="I19" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="J19" s="16">
+        <f t="shared" si="1"/>
+        <v>2.026666641235344</v>
+      </c>
+      <c r="K19" s="13" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="13">
+        <v>3109.5308</v>
+      </c>
+      <c r="B20" s="13">
+        <v>3199.7968000000001</v>
+      </c>
+      <c r="C20" s="13">
+        <v>3109.3674000000001</v>
+      </c>
+      <c r="D20" s="13">
+        <v>3199.4405999999999</v>
+      </c>
+      <c r="E20" s="13">
+        <v>90.0732</v>
+      </c>
+      <c r="F20" s="14">
+        <v>1.4111111164093</v>
+      </c>
+      <c r="G20" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H20" s="14">
+        <v>1.7333333492279099</v>
+      </c>
+      <c r="I20" s="14">
+        <v>1.1086956262588501</v>
+      </c>
+      <c r="J20" s="13">
+        <f t="shared" si="1"/>
+        <v>1.5633987436902037</v>
+      </c>
+      <c r="K20" s="13"/>
+    </row>
+    <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13">
+        <v>3211.3543</v>
+      </c>
+      <c r="D21" s="13">
+        <v>3247.9000999999998</v>
+      </c>
+      <c r="E21" s="13">
+        <v>36.5458</v>
+      </c>
+      <c r="F21" s="14">
+        <v>0.94594591856002797</v>
+      </c>
+      <c r="G21" s="18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="14">
+        <v>1.3333333730697601</v>
+      </c>
+      <c r="I21" s="14">
+        <v>0.57894736528396595</v>
+      </c>
+      <c r="J21" s="16">
+        <f t="shared" si="1"/>
+        <v>2.3030303841451594</v>
+      </c>
+      <c r="K21" s="13" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="13">
+        <v>3314.0886999999998</v>
+      </c>
+      <c r="B22" s="13">
+        <v>3384.7324999999996</v>
+      </c>
+      <c r="C22" s="13">
+        <v>3314.0106999999998</v>
+      </c>
+      <c r="D22" s="13">
+        <v>3384.4395</v>
+      </c>
+      <c r="E22" s="13">
+        <v>70.428799999999995</v>
+      </c>
+      <c r="F22" s="14">
+        <v>1.38571429252625</v>
+      </c>
+      <c r="G22" s="19" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H22" s="14">
+        <v>1.8571428060531601</v>
+      </c>
+      <c r="I22" s="14">
+        <v>0.94444441795349099</v>
+      </c>
+      <c r="J22" s="13">
+        <f t="shared" si="1"/>
+        <v>1.9663865556825333</v>
+      </c>
+      <c r="K22" s="13"/>
+    </row>
+    <row r="23" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13">
+        <v>3415.9106000000002</v>
+      </c>
+      <c r="D23" s="13">
+        <v>3428.5127000000002</v>
+      </c>
+      <c r="E23" s="13">
+        <v>12.6021</v>
+      </c>
+      <c r="F23" s="14">
+        <v>0.46153846383094799</v>
+      </c>
+      <c r="G23" s="18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="14">
+        <v>0.33333334326744102</v>
+      </c>
+      <c r="I23" s="14">
+        <v>0.57142859697341897</v>
+      </c>
+      <c r="J23" s="16">
+        <f t="shared" si="1"/>
+        <v>0.5833333246409903</v>
+      </c>
+      <c r="K23" s="13" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="13">
+        <v>3517.7399</v>
+      </c>
+      <c r="B24" s="13">
+        <v>3605.1507999999999</v>
+      </c>
+      <c r="C24" s="13">
+        <v>3517.5131000000001</v>
+      </c>
+      <c r="D24" s="13">
+        <v>3604.7662</v>
+      </c>
+      <c r="E24" s="13">
+        <v>87.253100000000003</v>
+      </c>
+      <c r="F24" s="14">
+        <v>1.5862069129943801</v>
+      </c>
+      <c r="G24" s="19" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H24" s="14">
+        <v>2.2790696620941202</v>
+      </c>
+      <c r="I24" s="14">
+        <v>0.909090936183929</v>
+      </c>
+      <c r="J24" s="13">
+        <f t="shared" si="1"/>
+        <v>2.5069765535898099</v>
+      </c>
+      <c r="K24" s="13"/>
+    </row>
+    <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13">
+        <v>3715.3768</v>
+      </c>
+      <c r="D25" s="13">
+        <v>3823.6433999999999</v>
+      </c>
+      <c r="E25" s="13">
+        <v>108.2666</v>
+      </c>
+      <c r="F25" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="G25" s="19" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H25" s="14">
+        <v>2.1666667461395299</v>
+      </c>
+      <c r="I25" s="14">
+        <v>0.818181812763214</v>
+      </c>
+      <c r="J25" s="13">
+        <f t="shared" si="1"/>
+        <v>2.6481482628196411</v>
+      </c>
+      <c r="K25" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>